--- a/air quality measurement/20250421100944_UTC+0100_37_hours_.xlsx
+++ b/air quality measurement/20250421100944_UTC+0100_37_hours_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulv\Documents\GitHub\boorman\air quality measurement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D75494-17B6-4CEF-9767-510D7B85E13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0298185-5F48-47CF-8068-F0AD43F53131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{E3F55AE2-C92C-4368-B616-A15C4F0EA0AA}"/>
   </bookViews>
@@ -967,9 +967,9 @@
   <dimension ref="A1:H437"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane ySplit="2304" topLeftCell="A419" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="A439" sqref="A439"/>
+      <pane ySplit="2304" topLeftCell="A184" activePane="bottomLeft"/>
+      <selection activeCell="E3" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10571,15 +10571,12 @@
         <v>48.31</v>
       </c>
       <c r="E376">
-        <v>29</v>
+        <v>23.75</v>
       </c>
       <c r="F376">
-        <v>23.75</v>
-      </c>
-      <c r="G376">
         <v>6</v>
       </c>
-      <c r="H376" t="s">
+      <c r="G376" t="s">
         <v>19</v>
       </c>
     </row>
